--- a/data/interface.xlsx
+++ b/data/interface.xlsx
@@ -85,7 +85,6 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="3"/>
       <sz val="9"/>
       <scheme val="minor"/>
     </font>
@@ -115,7 +114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +157,9 @@
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
@@ -466,7 +468,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="E5" pane="bottomLeft" sqref="E5"/>
+      <selection activeCell="F2" pane="bottomLeft" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -481,8 +483,8 @@
     <col customWidth="1" max="8" min="8" style="9" width="17.625"/>
     <col customWidth="1" max="9" min="9" style="9" width="10"/>
     <col customWidth="1" max="10" min="10" style="9" width="8.375"/>
-    <col customWidth="1" max="17" min="11" style="9" width="9"/>
-    <col customWidth="1" max="16384" min="18" style="9" width="9"/>
+    <col customWidth="1" max="25" min="11" style="9" width="9"/>
+    <col customWidth="1" max="16384" min="26" style="9" width="9"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -1453,11 +1455,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IU6"/>
+  <dimension ref="A1:IU5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
-      <selection activeCell="J2" pane="bottomLeft" sqref="J2"/>
+      <selection activeCell="E3" pane="bottomLeft" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1469,7 +1471,7 @@
     <col customWidth="1" max="6" min="6" style="2" width="22.875"/>
     <col customWidth="1" max="7" min="7" style="2" width="28.625"/>
     <col customWidth="1" max="8" min="8" style="2" width="24.375"/>
-    <col customWidth="1" max="9" min="9" style="2" width="4"/>
+    <col customWidth="1" max="9" min="9" style="2" width="11"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -1775,7 +1777,7 @@
           <t>查询IP地址</t>
         </is>
       </c>
-      <c r="B2" s="15" t="inlineStr">
+      <c r="B2" s="16" t="inlineStr">
         <is>
           <t>https://sp0.baidu.com/8aQDcjqpAAV3otqbppnN2DJv/</t>
         </is>
@@ -1812,7 +1814,7 @@
           <t>{"status":"0"}</t>
         </is>
       </c>
-      <c r="I2" s="12" t="n"/>
+      <c r="I2" s="15" t="n"/>
       <c r="J2" s="10" t="inlineStr">
         <is>
           <t>PASS</t>
@@ -1820,50 +1822,54 @@
       </c>
     </row>
     <row customHeight="1" ht="84" r="3" s="2">
-      <c r="A3" s="6" t="n"/>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t>https://user.vskit.tv/</t>
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>查询IP地址</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>https://vshow.vskit.tv/</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t xml:space="preserve">vskit/user/email/account/check </t>
+          <t>vskit/v3/videos/popular</t>
         </is>
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>{
-    "Content-Type":"application/json; charset=utf-8"
-}</t>
-        </is>
-      </c>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="n"/>
       <c r="F3" s="7" t="inlineStr">
         <is>
-          <t>{"email":"369@qq.com"}</t>
+          <t>{"page":"1","express_id": "0"}</t>
         </is>
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>"no router"</t>
+          <t>{"code": 0, "data": [{"video_id": "4cfaee764e40442bab30d70b4ac0eb48", "user_id": "68b59923-d301-11e8-85c3-02a82f68dac6", "title": "Ohhh ohh ohhh #Tunesbabe ", "video_url": "http://a.vskitcdn.com/V/41c93ba9-0b07-4765-bf8b-cfaab0905beb_z.mp4", "picture_url": "http://cdn.palm-chat.com/PIC/a66100a2-8f3a-4929-bd54-fee2c8dc3748_frame1.webp", "rawl_video_url": "http://a.vskitcdn.com/V/41c93ba9-0b07-4765-bf8b-cfaab0905beb.mp4", "created_time": 1567256785592, "video_height": 960, "video_width": 540, "views": 27101, "likes": 454, "shares": 28, "duration": 14766, "name": "Tunesbabe", "avatar_url": "http://cdn.palm-chat.com/vskit_avatar/789be3d7-7be2-470a-90c7-eb4f70ee9f60_100x100.webp", "sex": "F", "id": 1031024, "video_status": 4, "recommend": 3, "music_id": "e748778f55c1491b9a63c903407fceb0", "music_detail": {"music_id": "e748778f55c1491b9a63c903407fceb0", "title": "original sound-Tunesbabe", "music_url": "http://a.vskitcdn.com/music/a3d44213-4f49-4936-9523-13e83721eae1.mp3", "picture_url": "http://cdn.palm-chat.com/vskit_avatar/789be3d7-7be2-470a-90c7-eb4f70ee9f60_100x100.webp", "created_time": 1567256865396, "duration": 14760, "position": 523203, "music_type": 1, "music_source": 3, "video_id": "4cfaee764e40442bab30d70b4ac0eb48", "music_join_num": 2, "user_id": "68b59923-d301-11e8-85c3-02a82f68dac6"}}, {"video_id": "0b575114357248f8bc35e0e1795e8f30", "user_id": "68b59923-d301-11e8-85c3-02a82f68dac6", "title": "Maybe I am not even ugly \ud83d\ude1c\ud83e\udd23\ud83e\udd17 #Tunesbabe ", "video_url": "http://a.vskitcdn.com/V/ee1d970e-3dd8-4347-ab0a-abd699f2f6ec_z.mp4", "picture_url": "http://cdn.palm-chat.com/PIC/2fa76ce3-59ac-4ece-8b09-699bce9c270d_frame1.webp", "rawl_video_url": "http://a.vskitcdn.com/V/ee1d970e-3dd8-4347-ab0a-abd699f2f6ec.mp4", "created_time": 1567255471287, "video_height": 960, "video_width": 540, "views": 68031, "likes": 1159, "shares": 112, "duration": 14758, "name": "Tunesbabe", "avatar_url": "http://cdn.palm-chat.com/vskit_avatar/789be3d7-7be2-470a-90c7-eb4f70ee9f60_100x100.webp", "sex": "F", "id": 1031024, "video_status": 4, "recommend": 3, "comment_count": 10, "music_id": "acba160fb5e54e0b85f55a467d5f744e", "music_detail": {"music_id": "acba160fb5e54e0b85f55a467d5f744e", "title": "original sound-Tunesbabe", "music_url": "http://a.vskitcdn.com/music/ac7aac33-033b-4e46-8f46-9f5954cb6190.mp3", "picture_url": "http://cdn.palm-chat.com/vskit_avatar/789be3d7-7be2-470a-90c7-eb4f70ee9f60_100x100.webp", "created_time": 1567255524822, "duration": 14720, "position": 523175, "music_type": 1, "music_source": 3, "video_id": "0b575114357248f8bc35e0e1795e8f30", "music_join_num": 2, "user_id": "68b59923-d301-11e8-85c3-02a82f68dac6"}}, {"video_id": "d61eb6e852bd4b7896bcb47c20d724f7", "user_id": "b99e1272-e110-11e8-92d7-02a82fb19757", "video_url": "http://a.vskitcdn.com/V/c8b3b000-211f-4a9b-9d47-fac4c89db4e2_z.mp4", "picture_url": "http://cdn.palm-chat.com/PIC/9692681f-47bb-4fe8-b60a-7da24dd3edfc_frame1.webp", "rawl_video_url": "http://a.vskitcdn.com/V/c8b3b000-211f-4a9b-9d47-fac4c89db4e2.mp4", "created_time": 1567255237611, "video_height": 960, "video_width": 540, "views": 9457, "likes": 136, "shares": 12, "duration": 14537, "name": "Ebony_lee1", "avatar_url": "http://cdn.palm-chat.com/vskit_avatar/8c5f5011-513d-431e-ba7b-d444312fc568_100x100.webp", "sex": "F", "id": 1136627, "video_status": 4, "recommend": 3, "music_id": "b13eb2def9bf473e8744854a565367e0", "music_detail": {"music_id": "b13eb2def9bf473e8744854a565367e0", "title": "original sound-Ebony_lee1", "music_url": "http://a.vskitcdn.com/music/adb9b0ec-0502-4261-8ec3-77bbe5c3bbcd.mp3", "picture_url": "http://cdn.palm-chat.com/vskit_avatar/8c5f5011-513d-431e-ba7b-d444312fc568_100x100.webp", "created_time": 1567255257185, "duration": 14520, "position": 523167, "music_type": 1, "music_source": 3, "video_id": "d61eb6e852bd4b7896bcb47c20d724f7", "music_join_num": 1, "user_id": "b99e1272-e110-11e8-92d7-02a82fb19757"}}, {"video_id": "e8ca5c2f73db47359d0271b682175d59", "user_id": "7d59bd68-b238-11e8-8d47-02a82fb4d879", "video_url": "http://a.vskitcdn.com/V/d4d4bb83-6118-491a-8425-23354a300f65_z.mp4", "picture_url": "http://cdn.palm-chat.com/PIC/6ca7a073-4810-4016-9d6a-22b70680adc9_frame1.webp", "rawl_video_url": "http://a.vskitcdn.com/V/d4d4bb83-6118-491a-8425-23354a300f65.mp4", "created_time": 1567255077931, "video_height": 1280, "video_width": 720, "views": 113110, "likes": 1013, "shares": 92, "duration": 12920, "name": "MOustapha \u0158ass\u00f8ul", "avatar_url": "http://cdn.palm-chat.com/vskit_avatar/03a04c25-912f-45dd-acff-181f66e1c535_100x100.webp", "sex": "M", "id": 788825, "video_status": 4, "recommend": 3, "comment_count": 16, "music_id": "fb61acc8f9c94bed8c3935e72d795ebd", "music_detail": {"music_id": "fb61acc8f9c94bed8c3935e72d795ebd", "title": "original sound-MOustapha \u0158ass\u00f8ul", "music_url": "http://a.vskitcdn.com/music/a9eaac46-3ecf-4095-b746-358ac4971eb8.mp3", "picture_url": "http://cdn.palm-chat.com/vskit_avatar/03a04c25-912f-45dd-acff-181f66e1c535_100x100.webp", "created_time": 1567255169528, "duration": 12920, "position": 523162, "music_type": 1, "music_source": 3, "video_id": "e8ca5c2f73db47359d0271b682175d59", "music_join_num": 8, "user_id": "7d59bd68-b238-11e8-8d47-02a82fb4d879"}}, {"video_id": "12fe5215b504463d9342ff8a20bd4600", "user_id": "acffdf7e-bfb0-45b1-aa58-eb1c5cbf5ec9", "title": "#baby", "video_url": "http://a.vskitcdn.com/V/4092e2e1-1132-4cfc-b236-73e669f2f771_z.mp4", "picture_url": "http://cdn.palm-chat.com/PIC/a5b784cb-ddf7-4a03-8903-6bfa2c4fa403_frame1.webp", "rawl_video_url": "http://a.vskitcdn.com/V/4092e2e1-1132-4cfc-b236-73e669f2f771.mp4", "created_time": 1567249068566, "video_height": 960, "video_width": 540, "views": 9015, "likes": 229, "shares": 21, "duration": 15000, "name": "wanjiku kabata", "avatar_url": "http://cdn.palm-chat.com/vskit_avatar/2268242a-da34-48c1-8145-ae7db2e21175.webp", "sex": "F", "id": 1923997, "video_status": 4, "recommend": 3, "comment_count": 1, "music_id": "a2fce71abe2e4580a4467cc1b6b12eba", "music_detail": {"music_id": "a2fce71abe2e4580a4467cc1b6b12eba", "title": "original sound-wanjiku kabata", "music_url": "http://a.vskitcdn.com/music/7454057a-6661-405e-8966-e75a189c9d99.mp3", "picture_url": "http://cdn.palm-chat.com/vskit_avatar/1829cf70-5115-4fed-b419-2be549d02c8b.webp", "created_time": 1567249097302, "duration": 14960, "position": 522988, "music_type": 1, "music_source": 3, "video_id": "12fe5215b504463d9342ff8a20bd4600", "music_join_num": 1, "user_id": "acffdf7e-bfb0-45b1-aa58-eb1c5cbf5ec9"}}], "express_id": 95286, "msg": "SUCCESS", "scene": "transsnet"}</t>
         </is>
       </c>
       <c r="H3" s="14" t="inlineStr">
         <is>
-          <t>{"code":"1004"}</t>
+          <t>{"code":"11004"}</t>
         </is>
       </c>
       <c r="I3" s="12" t="n"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Fail,用例执行失败，原因：key:code对应的预期结果为:11004;实际结果为:0</t>
+        </is>
+      </c>
       <c r="K3" s="8" t="n"/>
+      <c r="L3" s="8" t="n"/>
     </row>
-    <row customHeight="1" ht="84" r="4" s="2">
+    <row customHeight="1" ht="48" r="4" s="2">
       <c r="A4" s="6" t="n"/>
-      <c r="B4" s="15" t="n"/>
+      <c r="B4" s="16" t="n"/>
       <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="7" t="n"/>
@@ -1871,12 +1877,10 @@
       <c r="G4" s="7" t="n"/>
       <c r="H4" s="14" t="n"/>
       <c r="I4" s="12" t="n"/>
-      <c r="K4" s="8" t="n"/>
-      <c r="L4" s="8" t="n"/>
     </row>
     <row customHeight="1" ht="48" r="5" s="2">
       <c r="A5" s="6" t="n"/>
-      <c r="B5" s="15" t="n"/>
+      <c r="B5" s="16" t="n"/>
       <c r="C5" s="6" t="n"/>
       <c r="D5" s="6" t="n"/>
       <c r="E5" s="7" t="n"/>
@@ -1885,19 +1889,8 @@
       <c r="H5" s="14" t="n"/>
       <c r="I5" s="12" t="n"/>
     </row>
-    <row customHeight="1" ht="48" r="6" s="2">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="15" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-      <c r="H6" s="14" t="n"/>
-      <c r="I6" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="40.5" r="7" s="2"/>
-    <row customHeight="1" ht="135" r="28" s="2"/>
+    <row customHeight="1" ht="40.5" r="6" s="2"/>
+    <row customHeight="1" ht="135" r="27" s="2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B2" r:id="rId1"/>
